--- a/doc/4_共通設計/ドメイン設計.xlsx
+++ b/doc/4_共通設計/ドメイン設計.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\debpre\climate-reform\album-web\doc\4_共通設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tie306582\projects\album-web\doc\4_共通設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAFE8D7-1B41-4EC1-BC92-F91276D3A413}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8108E1-73D8-4E6F-8722-523985C187FB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{60956159-8DA5-40D8-9317-E66E48E384C1}"/>
+    <workbookView xWindow="-28965" yWindow="-165" windowWidth="29130" windowHeight="15930" xr2:uid="{60956159-8DA5-40D8-9317-E66E48E384C1}"/>
   </bookViews>
   <sheets>
     <sheet name="ドメイン" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
   <si>
     <t>ドメイン名</t>
     <rPh sb="4" eb="5">
@@ -326,6 +326,26 @@
   <si>
     <t>メモ</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイムスタンプ</t>
+  </si>
+  <si>
+    <t>日本時刻</t>
+    <rPh sb="0" eb="2">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バイナリ</t>
   </si>
 </sst>
 </file>
@@ -456,17 +476,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -474,13 +488,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -800,341 +820,465 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66E7D19-1D16-4441-BF92-4D2813DCB633}">
   <dimension ref="B2:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="9" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41.9140625" customWidth="1"/>
+    <col min="8" max="9" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="4" t="s">
+      <c r="I2" s="8"/>
+      <c r="J2" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+    <row r="3" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="2:10" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="6" t="s">
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="2" t="s">
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="3" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="2" t="s">
+      <c r="C8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>256</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="2" t="s">
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="2" t="s">
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="2" t="s">
+      <c r="C12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="1">
+        <v>32</v>
+      </c>
+      <c r="E12" s="1">
+        <v>126</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="2" t="s">
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>256</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="2" t="s">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="2" t="s">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="2" t="s">
+      <c r="C16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>256</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="2" t="s">
+      <c r="C17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>256</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="2" t="s">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="2" t="s">
+      <c r="C19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="1">
+        <v>32</v>
+      </c>
+      <c r="E19" s="1">
+        <v>126</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="2" t="s">
+      <c r="C20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>256</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="2" t="s">
+      <c r="C21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>256</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="2" t="s">
+      <c r="C22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="2:10" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="2" t="s">
+      <c r="C23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>256</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="2:10" ht="75" x14ac:dyDescent="0.4">
+      <c r="B24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="5" t="s">
+      <c r="C24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>256</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1183,13 +1327,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1197,7 +1341,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1205,7 +1349,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1213,7 +1357,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1221,7 +1365,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1229,7 +1373,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1237,12 +1381,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>40</v>
       </c>

--- a/doc/4_共通設計/ドメイン設計.xlsx
+++ b/doc/4_共通設計/ドメイン設計.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tie306582\projects\album-web\doc\4_共通設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\debpre\climate-reform\album-web\doc\4_共通設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8108E1-73D8-4E6F-8722-523985C187FB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AB822C-69E9-42D8-BECC-568E0B74C4BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28965" yWindow="-165" windowWidth="29130" windowHeight="15930" xr2:uid="{60956159-8DA5-40D8-9317-E66E48E384C1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{60956159-8DA5-40D8-9317-E66E48E384C1}"/>
   </bookViews>
   <sheets>
     <sheet name="ドメイン" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="51">
   <si>
     <t>ドメイン名</t>
     <rPh sb="4" eb="5">
@@ -74,12 +74,6 @@
     <t>名前</t>
   </si>
   <si>
-    <t>性別ID</t>
-  </si>
-  <si>
-    <t>血液型ID</t>
-  </si>
-  <si>
     <t>セールスポイント</t>
   </si>
   <si>
@@ -87,14 +81,6 @@
   </si>
   <si>
     <t>自己紹介資料</t>
-  </si>
-  <si>
-    <t>フラグ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>都道県ID</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>性別名</t>
@@ -346,6 +332,40 @@
   </si>
   <si>
     <t>バイナリ</t>
+  </si>
+  <si>
+    <t>採用形式</t>
+    <rPh sb="0" eb="2">
+      <t>サイヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新卒採用、中途採用</t>
+    <rPh sb="0" eb="2">
+      <t>シンソツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チュウト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>都道県</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -820,9 +840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66E7D19-1D16-4441-BF92-4D2813DCB633}">
   <dimension ref="B2:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -838,42 +856,42 @@
         <v>0</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J3" s="7"/>
     </row>
@@ -882,7 +900,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4">
         <v>9</v>
@@ -891,14 +909,14 @@
         <v>10</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J4" s="4"/>
     </row>
@@ -907,7 +925,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -919,10 +937,10 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -930,14 +948,16 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -949,23 +969,23 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
@@ -973,7 +993,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -982,7 +1002,7 @@
         <v>256</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -994,7 +1014,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -1003,7 +1023,7 @@
         <v>3000</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1015,11 +1035,17 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1030,7 +1056,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1">
         <v>32</v>
@@ -1039,7 +1065,7 @@
         <v>126</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1051,7 +1077,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -1060,7 +1086,7 @@
         <v>256</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1069,10 +1095,10 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1084,10 +1110,10 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1099,10 +1125,10 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -1111,7 +1137,7 @@
         <v>256</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1120,10 +1146,10 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -1132,7 +1158,7 @@
         <v>256</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1141,10 +1167,10 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1156,10 +1182,10 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D19" s="1">
         <v>32</v>
@@ -1168,7 +1194,7 @@
         <v>126</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1177,10 +1203,10 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -1189,7 +1215,7 @@
         <v>256</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1198,10 +1224,10 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -1210,7 +1236,7 @@
         <v>256</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1219,10 +1245,10 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -1231,7 +1257,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1240,10 +1266,10 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -1252,7 +1278,7 @@
         <v>256</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1261,10 +1287,10 @@
     </row>
     <row r="24" spans="2:10" ht="75" x14ac:dyDescent="0.4">
       <c r="B24" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
@@ -1273,13 +1299,13 @@
         <v>256</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1335,60 +1361,60 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
